--- a/excel/finished/能介/能源环保部空压站设备日点检表.xlsx
+++ b/excel/finished/能介/能源环保部空压站设备日点检表.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <bookViews>
     <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="封面" sheetId="2" r:id="rId1"/>
-    <sheet name="_Template" sheetId="3" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="4" r:id="rId3"/>
+    <sheet name="封面" sheetId="1" r:id="rId1"/>
+    <sheet name="_Template" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="96">
   <si>
     <t>编号：SGSSG-BSMCFQ05-G5-02A</t>
   </si>
@@ -457,6 +457,21 @@
   <si>
     <t>说明：正常打“√”；故障打“×”；隐患打“△”；已处理打“○”。要求每每班点检一次，记录一次，正常、故障、隐患及处理情况记在记事栏中作简要说明</t>
   </si>
+  <si>
+    <t>能源环保部（ 二 ）空压站设备日点检表</t>
+  </si>
+  <si>
+    <t>点检日期:</t>
+  </si>
+  <si>
+    <t>能源环保部（ 三 ）空压站设备日点检表</t>
+  </si>
+  <si>
+    <t>能源环保部（ 四 ）空压站设备日点检表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点检日期: </t>
+  </si>
 </sst>
 </file>
 
@@ -464,15 +479,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -493,7 +510,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -515,137 +531,147 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
+      <color theme="3"/>
+      <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
+      <color theme="3"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
+      <color indexed="65"/>
+      <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -654,7 +680,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,138 +689,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -804,144 +884,144 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top/>
       <bottom/>
@@ -949,10 +1029,10 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top/>
       <bottom/>
@@ -960,12 +1040,12 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,141 +1054,141 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1117,37 +1197,11 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,7 +1210,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="30"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,32 +1244,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,185 +1284,170 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="31">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="30">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="27">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="33">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1385,8 +1456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1395,7 +1465,7 @@
     <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,49 +1499,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1480,6 +1539,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1503,21 +1565,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1525,17 +1583,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1660,73 +1715,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1734,7 +1729,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1760,7 +1755,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1812,16 +1807,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1837,7 +1844,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1876,11 +1883,11 @@
   <sheetPr/>
   <dimension ref="A6:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="6" ht="15.75" spans="6:6">
       <c r="F6" s="49"/>
@@ -1980,73 +1987,73 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="C113" sqref="C113:D113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="5.25" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="21" width="3.125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="3.33333333333333" customWidth="1"/>
+    <col min="2" max="2" width="5.25185185185185" customWidth="1"/>
+    <col min="3" max="3" width="19.0814814814815" customWidth="1"/>
+    <col min="4" max="4" width="8.25185185185185" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.0814814814815" customWidth="1"/>
+    <col min="6" max="6" width="9.33333333333333" customWidth="1"/>
+    <col min="7" max="21" width="3.08148148148148" customWidth="1"/>
+    <col min="22" max="22" width="28.0814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40.5" customHeight="1" spans="1:22">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:22">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="str">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="31" t="s">
         <v>6</v>
       </c>
@@ -2059,70 +2066,70 @@
       <c r="R2" s="31"/>
       <c r="S2" s="31"/>
       <c r="T2" s="31"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="32"/>
       <c r="J3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="11"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="8"/>
       <c r="O3" s="32"/>
       <c r="P3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="8"/>
       <c r="R3" s="32"/>
       <c r="S3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
       <c r="V3" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:22">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="35" t="s">
@@ -2131,7 +2138,7 @@
       <c r="J4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="37" t="s">
@@ -2140,7 +2147,7 @@
       <c r="M4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="O4" s="35" t="s">
@@ -2149,7 +2156,7 @@
       <c r="P4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="R4" s="35" t="s">
@@ -2158,1074 +2165,4711 @@
       <c r="S4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="V4" s="44"/>
     </row>
-    <row r="5" customHeight="1" spans="1:22">
-      <c r="A5" s="18">
+    <row r="5" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A5" s="17">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="39"/>
       <c r="J5" s="40"/>
-      <c r="K5" s="23"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="41"/>
       <c r="M5" s="40"/>
-      <c r="N5" s="23"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="39"/>
       <c r="P5" s="42"/>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="22"/>
       <c r="R5" s="39"/>
       <c r="S5" s="42"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
       <c r="V5" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="24">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="39"/>
       <c r="J6" s="40"/>
-      <c r="K6" s="23"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="41"/>
       <c r="M6" s="40"/>
-      <c r="N6" s="23"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="39"/>
       <c r="P6" s="42"/>
-      <c r="Q6" s="23"/>
+      <c r="Q6" s="22"/>
       <c r="R6" s="39"/>
       <c r="S6" s="42"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
       <c r="V6" s="46"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="39"/>
       <c r="J7" s="40"/>
-      <c r="K7" s="23"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="41"/>
       <c r="M7" s="40"/>
-      <c r="N7" s="23"/>
+      <c r="N7" s="22"/>
       <c r="O7" s="39"/>
       <c r="P7" s="42"/>
-      <c r="Q7" s="23"/>
+      <c r="Q7" s="22"/>
       <c r="R7" s="39"/>
       <c r="S7" s="42"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
       <c r="V7" s="46"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="39"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="23"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="41"/>
       <c r="M8" s="40"/>
-      <c r="N8" s="23"/>
+      <c r="N8" s="22"/>
       <c r="O8" s="39"/>
       <c r="P8" s="42"/>
-      <c r="Q8" s="23"/>
+      <c r="Q8" s="22"/>
       <c r="R8" s="39"/>
       <c r="S8" s="42"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
       <c r="V8" s="46"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="39"/>
       <c r="J9" s="40"/>
-      <c r="K9" s="23"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="41"/>
       <c r="M9" s="40"/>
-      <c r="N9" s="23"/>
+      <c r="N9" s="22"/>
       <c r="O9" s="39"/>
       <c r="P9" s="42"/>
-      <c r="Q9" s="23"/>
+      <c r="Q9" s="22"/>
       <c r="R9" s="39"/>
       <c r="S9" s="42"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
       <c r="V9" s="46"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>1</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="39"/>
       <c r="J10" s="40"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="41"/>
       <c r="M10" s="40"/>
-      <c r="N10" s="23"/>
+      <c r="N10" s="22"/>
       <c r="O10" s="39"/>
       <c r="P10" s="42"/>
-      <c r="Q10" s="23"/>
+      <c r="Q10" s="22"/>
       <c r="R10" s="39"/>
       <c r="S10" s="42"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
       <c r="V10" s="46"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>1</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="39"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="23"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="41"/>
       <c r="M11" s="40"/>
-      <c r="N11" s="23"/>
+      <c r="N11" s="22"/>
       <c r="O11" s="39"/>
       <c r="P11" s="42"/>
-      <c r="Q11" s="23"/>
+      <c r="Q11" s="22"/>
       <c r="R11" s="39"/>
       <c r="S11" s="42"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
       <c r="V11" s="46"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="24">
+      <c r="A12" s="23">
         <v>8</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="39"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="23"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="41"/>
       <c r="M12" s="40"/>
-      <c r="N12" s="23"/>
+      <c r="N12" s="22"/>
       <c r="O12" s="39"/>
       <c r="P12" s="42"/>
-      <c r="Q12" s="23"/>
+      <c r="Q12" s="22"/>
       <c r="R12" s="39"/>
       <c r="S12" s="42"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
       <c r="V12" s="46"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>9</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="39"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="23"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="41"/>
       <c r="M13" s="40"/>
-      <c r="N13" s="23"/>
+      <c r="N13" s="22"/>
       <c r="O13" s="39"/>
       <c r="P13" s="42"/>
-      <c r="Q13" s="23"/>
+      <c r="Q13" s="22"/>
       <c r="R13" s="39"/>
       <c r="S13" s="42"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
       <c r="V13" s="46"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>10</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="39"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="23"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="41"/>
       <c r="M14" s="40"/>
-      <c r="N14" s="23"/>
+      <c r="N14" s="22"/>
       <c r="O14" s="39"/>
       <c r="P14" s="42"/>
-      <c r="Q14" s="23"/>
+      <c r="Q14" s="22"/>
       <c r="R14" s="39"/>
       <c r="S14" s="42"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
       <c r="V14" s="47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="24">
+      <c r="A15" s="23">
         <v>11</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="39"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="23"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="41"/>
       <c r="M15" s="40"/>
-      <c r="N15" s="23"/>
+      <c r="N15" s="22"/>
       <c r="O15" s="39"/>
       <c r="P15" s="42"/>
-      <c r="Q15" s="23"/>
+      <c r="Q15" s="22"/>
       <c r="R15" s="39"/>
       <c r="S15" s="42"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
       <c r="V15" s="45" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>12</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="39"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="23"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="41"/>
       <c r="M16" s="40"/>
-      <c r="N16" s="23"/>
+      <c r="N16" s="22"/>
       <c r="O16" s="39"/>
       <c r="P16" s="42"/>
-      <c r="Q16" s="23"/>
+      <c r="Q16" s="22"/>
       <c r="R16" s="39"/>
       <c r="S16" s="42"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
       <c r="V16" s="46"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>2</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="39"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="23"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="41"/>
       <c r="M17" s="40"/>
-      <c r="N17" s="23"/>
+      <c r="N17" s="22"/>
       <c r="O17" s="39"/>
       <c r="P17" s="42"/>
-      <c r="Q17" s="23"/>
+      <c r="Q17" s="22"/>
       <c r="R17" s="39"/>
       <c r="S17" s="42"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
       <c r="V17" s="46"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="24">
+      <c r="A18" s="23">
         <v>14</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="39"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="23"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="41"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="23"/>
+      <c r="N18" s="22"/>
       <c r="O18" s="39"/>
       <c r="P18" s="42"/>
-      <c r="Q18" s="23"/>
+      <c r="Q18" s="22"/>
       <c r="R18" s="39"/>
       <c r="S18" s="42"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
       <c r="V18" s="46"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="24">
+      <c r="A19" s="23">
         <v>15</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="39"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="23"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="41"/>
       <c r="M19" s="40"/>
-      <c r="N19" s="23"/>
+      <c r="N19" s="22"/>
       <c r="O19" s="39"/>
       <c r="P19" s="42"/>
-      <c r="Q19" s="23"/>
+      <c r="Q19" s="22"/>
       <c r="R19" s="39"/>
       <c r="S19" s="42"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
       <c r="V19" s="46"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="24">
+      <c r="A20" s="23">
         <v>17</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="39"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="23"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="41"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="23"/>
+      <c r="N20" s="22"/>
       <c r="O20" s="39"/>
       <c r="P20" s="42"/>
-      <c r="Q20" s="23"/>
+      <c r="Q20" s="22"/>
       <c r="R20" s="39"/>
       <c r="S20" s="42"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
       <c r="V20" s="46"/>
     </row>
-    <row r="21" customHeight="1" spans="1:22">
-      <c r="A21" s="18">
+    <row r="21" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A21" s="17">
         <v>3</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="39"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="23"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="41"/>
       <c r="M21" s="40"/>
-      <c r="N21" s="23"/>
+      <c r="N21" s="22"/>
       <c r="O21" s="39"/>
       <c r="P21" s="42"/>
-      <c r="Q21" s="23"/>
+      <c r="Q21" s="22"/>
       <c r="R21" s="39"/>
       <c r="S21" s="42"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
       <c r="V21" s="46"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="24">
+      <c r="A22" s="23">
         <v>20</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="39"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="23"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="41"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="23"/>
+      <c r="N22" s="22"/>
       <c r="O22" s="39"/>
       <c r="P22" s="42"/>
-      <c r="Q22" s="23"/>
+      <c r="Q22" s="22"/>
       <c r="R22" s="39"/>
       <c r="S22" s="42"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
       <c r="V22" s="46"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="24">
+      <c r="A23" s="23">
         <v>21</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="39"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="23"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="41"/>
       <c r="M23" s="40"/>
-      <c r="N23" s="23"/>
+      <c r="N23" s="22"/>
       <c r="O23" s="39"/>
       <c r="P23" s="42"/>
-      <c r="Q23" s="23"/>
+      <c r="Q23" s="22"/>
       <c r="R23" s="39"/>
       <c r="S23" s="42"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
       <c r="V23" s="47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>4</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="22" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="39"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="23"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="41"/>
       <c r="M24" s="40"/>
-      <c r="N24" s="23"/>
+      <c r="N24" s="22"/>
       <c r="O24" s="39"/>
       <c r="P24" s="42"/>
-      <c r="Q24" s="23"/>
+      <c r="Q24" s="22"/>
       <c r="R24" s="39"/>
       <c r="S24" s="42"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
       <c r="V24" s="45" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="24">
+      <c r="A25" s="23">
         <v>23</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="23"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="41"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="23"/>
+      <c r="N25" s="22"/>
       <c r="O25" s="39"/>
       <c r="P25" s="42"/>
-      <c r="Q25" s="23"/>
+      <c r="Q25" s="22"/>
       <c r="R25" s="39"/>
       <c r="S25" s="42"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
       <c r="V25" s="46"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="24">
+      <c r="A26" s="23">
         <v>24</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="39"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="23"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="41"/>
       <c r="M26" s="40"/>
-      <c r="N26" s="23"/>
+      <c r="N26" s="22"/>
       <c r="O26" s="39"/>
       <c r="P26" s="42"/>
-      <c r="Q26" s="23"/>
+      <c r="Q26" s="22"/>
       <c r="R26" s="39"/>
       <c r="S26" s="42"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
       <c r="V26" s="46"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="24">
+      <c r="A27" s="23">
         <v>25</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="39"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="23"/>
+      <c r="K27" s="22"/>
       <c r="L27" s="41"/>
       <c r="M27" s="40"/>
-      <c r="N27" s="23"/>
+      <c r="N27" s="22"/>
       <c r="O27" s="39"/>
       <c r="P27" s="42"/>
-      <c r="Q27" s="23"/>
+      <c r="Q27" s="22"/>
       <c r="R27" s="39"/>
       <c r="S27" s="42"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
       <c r="V27" s="46"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>5</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="22" t="s">
+      <c r="E28" s="25"/>
+      <c r="F28" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="39"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="23"/>
+      <c r="K28" s="22"/>
       <c r="L28" s="41"/>
       <c r="M28" s="40"/>
-      <c r="N28" s="23"/>
+      <c r="N28" s="22"/>
       <c r="O28" s="39"/>
       <c r="P28" s="42"/>
-      <c r="Q28" s="23"/>
+      <c r="Q28" s="22"/>
       <c r="R28" s="39"/>
       <c r="S28" s="42"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
       <c r="V28" s="46"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="24">
+      <c r="A29" s="23">
         <v>27</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="39"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="23"/>
+      <c r="K29" s="22"/>
       <c r="L29" s="41"/>
       <c r="M29" s="40"/>
-      <c r="N29" s="23"/>
+      <c r="N29" s="22"/>
       <c r="O29" s="39"/>
       <c r="P29" s="42"/>
-      <c r="Q29" s="23"/>
+      <c r="Q29" s="22"/>
       <c r="R29" s="39"/>
       <c r="S29" s="42"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
       <c r="V29" s="46"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="24">
+      <c r="A30" s="23">
         <v>28</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="39"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="23"/>
+      <c r="K30" s="22"/>
       <c r="L30" s="41"/>
       <c r="M30" s="40"/>
-      <c r="N30" s="23"/>
+      <c r="N30" s="22"/>
       <c r="O30" s="39"/>
       <c r="P30" s="42"/>
-      <c r="Q30" s="23"/>
+      <c r="Q30" s="22"/>
       <c r="R30" s="39"/>
       <c r="S30" s="42"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
       <c r="V30" s="46"/>
     </row>
-    <row r="31" customHeight="1" spans="1:22">
-      <c r="A31" s="27">
+    <row r="31" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A31" s="26">
         <v>29</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="39"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="23"/>
+      <c r="K31" s="22"/>
       <c r="L31" s="41"/>
       <c r="M31" s="40"/>
-      <c r="N31" s="23"/>
+      <c r="N31" s="22"/>
       <c r="O31" s="39"/>
       <c r="P31" s="42"/>
-      <c r="Q31" s="23"/>
+      <c r="Q31" s="22"/>
       <c r="R31" s="39"/>
       <c r="S31" s="42"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
       <c r="V31" s="46"/>
     </row>
-    <row r="32" customHeight="1" spans="1:22">
-      <c r="A32" s="18">
+    <row r="32" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A32" s="17">
         <v>6</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="22" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="39"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="23"/>
+      <c r="K32" s="22"/>
       <c r="L32" s="41"/>
       <c r="M32" s="40"/>
-      <c r="N32" s="23"/>
+      <c r="N32" s="22"/>
       <c r="O32" s="39"/>
       <c r="P32" s="42"/>
-      <c r="Q32" s="23"/>
+      <c r="Q32" s="22"/>
       <c r="R32" s="39"/>
       <c r="S32" s="42"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
       <c r="V32" s="46"/>
     </row>
-    <row r="33" customHeight="1" spans="1:22">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="20" t="s">
+    <row r="33" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="22" t="s">
+      <c r="E33" s="19"/>
+      <c r="F33" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="39"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="23"/>
+      <c r="K33" s="22"/>
       <c r="L33" s="41"/>
       <c r="M33" s="40"/>
-      <c r="N33" s="23"/>
+      <c r="N33" s="22"/>
       <c r="O33" s="39"/>
       <c r="P33" s="42"/>
-      <c r="Q33" s="23"/>
+      <c r="Q33" s="22"/>
       <c r="R33" s="39"/>
       <c r="S33" s="42"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
       <c r="V33" s="46"/>
     </row>
-    <row r="34" customHeight="1" spans="1:22">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="20" t="s">
+    <row r="34" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="39"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="23"/>
+      <c r="K34" s="22"/>
       <c r="L34" s="41"/>
       <c r="M34" s="40"/>
-      <c r="N34" s="23"/>
+      <c r="N34" s="22"/>
       <c r="O34" s="39"/>
       <c r="P34" s="42"/>
-      <c r="Q34" s="23"/>
+      <c r="Q34" s="22"/>
       <c r="R34" s="39"/>
       <c r="S34" s="42"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
       <c r="V34" s="47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" ht="16.5" customHeight="1" spans="1:22">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
       <c r="V35" s="48"/>
     </row>
+    <row r="36" ht="16.5" customHeight="1" spans="1:22">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+    </row>
+    <row r="38" ht="40.5" customHeight="1" spans="1:22">
+      <c r="A38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A39" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="4" t="str">
+        <f>IF(C2="","",C2)</f>
+        <v/>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="8"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" spans="1:22">
+      <c r="A41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="P41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="S41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="V41" s="44"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A42" s="17">
+        <v>1</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="23">
+        <v>2</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="46"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="23">
+        <v>3</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="46"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="23">
+        <v>4</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="46"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="23">
+        <v>5</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="46"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="23">
+        <v>6</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="25">
+        <v>1</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="46"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="23">
+        <v>7</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="25">
+        <v>1</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="46"/>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="23">
+        <v>8</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="46"/>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="23">
+        <v>9</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="46"/>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="23">
+        <v>10</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="23">
+        <v>11</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="26">
+        <v>12</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="46"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="17">
+        <v>2</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="46"/>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="23">
+        <v>14</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="46"/>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="23">
+        <v>15</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="46"/>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="23">
+        <v>17</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="46"/>
+    </row>
+    <row r="58" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A58" s="17">
+        <v>3</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="46"/>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="23">
+        <v>20</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="46"/>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="23">
+        <v>21</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="17">
+        <v>4</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="22"/>
+      <c r="U61" s="22"/>
+      <c r="V61" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="23">
+        <v>23</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="22"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="46"/>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="23">
+        <v>24</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="46"/>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="23">
+        <v>25</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="46"/>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="17">
+        <v>5</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="25"/>
+      <c r="F65" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="22"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="46"/>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="23">
+        <v>27</v>
+      </c>
+      <c r="B66" s="24"/>
+      <c r="C66" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="42"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="46"/>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="23">
+        <v>28</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="42"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22"/>
+      <c r="V67" s="46"/>
+    </row>
+    <row r="68" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A68" s="26">
+        <v>29</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="42"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="46"/>
+    </row>
+    <row r="69" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A69" s="17">
+        <v>6</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="19"/>
+      <c r="F69" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="46"/>
+    </row>
+    <row r="70" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A70" s="23"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="22"/>
+      <c r="U70" s="22"/>
+      <c r="V70" s="46"/>
+    </row>
+    <row r="71" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A71" s="26"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="42"/>
+      <c r="T71" s="22"/>
+      <c r="U71" s="22"/>
+      <c r="V71" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" ht="16.5" customHeight="1" spans="1:22">
+      <c r="A72" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="48"/>
+    </row>
+    <row r="75" ht="40.5" customHeight="1" spans="1:22">
+      <c r="A75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+    </row>
+    <row r="76" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A76" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4" t="str">
+        <f>IF(C2="","",C2)</f>
+        <v/>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="31"/>
+      <c r="S76" s="31"/>
+      <c r="T76" s="31"/>
+      <c r="U76" s="31"/>
+      <c r="V76" s="5"/>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" s="8"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="N77" s="8"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="32"/>
+      <c r="S77" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" ht="25.5" spans="1:22">
+      <c r="A78" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L78" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M78" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O78" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="P78" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R78" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="S78" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T78" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U78" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="V78" s="44"/>
+    </row>
+    <row r="79" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A79" s="17">
+        <v>1</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="42"/>
+      <c r="T79" s="22"/>
+      <c r="U79" s="22"/>
+      <c r="V79" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" s="23">
+        <v>2</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="C80" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="22"/>
+      <c r="U80" s="22"/>
+      <c r="V80" s="46"/>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="23">
+        <v>3</v>
+      </c>
+      <c r="B81" s="24"/>
+      <c r="C81" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="41"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="22"/>
+      <c r="U81" s="22"/>
+      <c r="V81" s="46"/>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" s="23">
+        <v>4</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="42"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="42"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="22"/>
+      <c r="V82" s="46"/>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" s="23">
+        <v>5</v>
+      </c>
+      <c r="B83" s="24"/>
+      <c r="C83" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="42"/>
+      <c r="T83" s="22"/>
+      <c r="U83" s="22"/>
+      <c r="V83" s="46"/>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" s="23">
+        <v>6</v>
+      </c>
+      <c r="B84" s="24"/>
+      <c r="C84" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="25">
+        <v>1</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="42"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="46"/>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" s="23">
+        <v>7</v>
+      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="25">
+        <v>1</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="41"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="42"/>
+      <c r="Q85" s="22"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="42"/>
+      <c r="T85" s="22"/>
+      <c r="U85" s="22"/>
+      <c r="V85" s="46"/>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" s="23">
+        <v>8</v>
+      </c>
+      <c r="B86" s="24"/>
+      <c r="C86" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="42"/>
+      <c r="Q86" s="22"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="42"/>
+      <c r="T86" s="22"/>
+      <c r="U86" s="22"/>
+      <c r="V86" s="46"/>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" s="23">
+        <v>9</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="42"/>
+      <c r="Q87" s="22"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="42"/>
+      <c r="T87" s="22"/>
+      <c r="U87" s="22"/>
+      <c r="V87" s="46"/>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" s="23">
+        <v>10</v>
+      </c>
+      <c r="B88" s="24"/>
+      <c r="C88" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="42"/>
+      <c r="T88" s="22"/>
+      <c r="U88" s="22"/>
+      <c r="V88" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" s="23">
+        <v>11</v>
+      </c>
+      <c r="B89" s="24"/>
+      <c r="C89" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="42"/>
+      <c r="Q89" s="22"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="42"/>
+      <c r="T89" s="22"/>
+      <c r="U89" s="22"/>
+      <c r="V89" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" s="26">
+        <v>12</v>
+      </c>
+      <c r="B90" s="27"/>
+      <c r="C90" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="42"/>
+      <c r="Q90" s="22"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="42"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="22"/>
+      <c r="V90" s="46"/>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" s="17">
+        <v>2</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="41"/>
+      <c r="M91" s="40"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="42"/>
+      <c r="Q91" s="22"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="42"/>
+      <c r="T91" s="22"/>
+      <c r="U91" s="22"/>
+      <c r="V91" s="46"/>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" s="23">
+        <v>14</v>
+      </c>
+      <c r="B92" s="24"/>
+      <c r="C92" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="41"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="42"/>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="42"/>
+      <c r="T92" s="22"/>
+      <c r="U92" s="22"/>
+      <c r="V92" s="46"/>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" s="23">
+        <v>15</v>
+      </c>
+      <c r="B93" s="24"/>
+      <c r="C93" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="41"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="42"/>
+      <c r="Q93" s="22"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="42"/>
+      <c r="T93" s="22"/>
+      <c r="U93" s="22"/>
+      <c r="V93" s="46"/>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="A94" s="23">
+        <v>17</v>
+      </c>
+      <c r="B94" s="24"/>
+      <c r="C94" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="41"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="42"/>
+      <c r="Q94" s="22"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="42"/>
+      <c r="T94" s="22"/>
+      <c r="U94" s="22"/>
+      <c r="V94" s="46"/>
+    </row>
+    <row r="95" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A95" s="17">
+        <v>3</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="41"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="42"/>
+      <c r="Q95" s="22"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="42"/>
+      <c r="T95" s="22"/>
+      <c r="U95" s="22"/>
+      <c r="V95" s="46"/>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" s="23">
+        <v>20</v>
+      </c>
+      <c r="B96" s="24"/>
+      <c r="C96" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="22"/>
+      <c r="R96" s="39"/>
+      <c r="S96" s="42"/>
+      <c r="T96" s="22"/>
+      <c r="U96" s="22"/>
+      <c r="V96" s="46"/>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97" s="23">
+        <v>21</v>
+      </c>
+      <c r="B97" s="24"/>
+      <c r="C97" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="41"/>
+      <c r="M97" s="40"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="42"/>
+      <c r="Q97" s="22"/>
+      <c r="R97" s="39"/>
+      <c r="S97" s="42"/>
+      <c r="T97" s="22"/>
+      <c r="U97" s="22"/>
+      <c r="V97" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="A98" s="17">
+        <v>4</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="25"/>
+      <c r="F98" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="41"/>
+      <c r="M98" s="40"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="42"/>
+      <c r="Q98" s="22"/>
+      <c r="R98" s="39"/>
+      <c r="S98" s="42"/>
+      <c r="T98" s="22"/>
+      <c r="U98" s="22"/>
+      <c r="V98" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="A99" s="23">
+        <v>23</v>
+      </c>
+      <c r="B99" s="24"/>
+      <c r="C99" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="41"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="42"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="39"/>
+      <c r="S99" s="42"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="22"/>
+      <c r="V99" s="46"/>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="A100" s="23">
+        <v>24</v>
+      </c>
+      <c r="B100" s="24"/>
+      <c r="C100" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="41"/>
+      <c r="M100" s="40"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="42"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="39"/>
+      <c r="S100" s="42"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
+      <c r="V100" s="46"/>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101" s="23">
+        <v>25</v>
+      </c>
+      <c r="B101" s="24"/>
+      <c r="C101" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="41"/>
+      <c r="M101" s="40"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="42"/>
+      <c r="Q101" s="22"/>
+      <c r="R101" s="39"/>
+      <c r="S101" s="42"/>
+      <c r="T101" s="22"/>
+      <c r="U101" s="22"/>
+      <c r="V101" s="46"/>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="A102" s="17">
+        <v>5</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="25"/>
+      <c r="F102" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="40"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="40"/>
+      <c r="N102" s="22"/>
+      <c r="O102" s="39"/>
+      <c r="P102" s="42"/>
+      <c r="Q102" s="22"/>
+      <c r="R102" s="39"/>
+      <c r="S102" s="42"/>
+      <c r="T102" s="22"/>
+      <c r="U102" s="22"/>
+      <c r="V102" s="46"/>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="A103" s="23">
+        <v>27</v>
+      </c>
+      <c r="B103" s="24"/>
+      <c r="C103" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="40"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="41"/>
+      <c r="M103" s="40"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="39"/>
+      <c r="P103" s="42"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="39"/>
+      <c r="S103" s="42"/>
+      <c r="T103" s="22"/>
+      <c r="U103" s="22"/>
+      <c r="V103" s="46"/>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="A104" s="23">
+        <v>28</v>
+      </c>
+      <c r="B104" s="24"/>
+      <c r="C104" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="41"/>
+      <c r="M104" s="40"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="39"/>
+      <c r="P104" s="42"/>
+      <c r="Q104" s="22"/>
+      <c r="R104" s="39"/>
+      <c r="S104" s="42"/>
+      <c r="T104" s="22"/>
+      <c r="U104" s="22"/>
+      <c r="V104" s="46"/>
+    </row>
+    <row r="105" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A105" s="26">
+        <v>29</v>
+      </c>
+      <c r="B105" s="27"/>
+      <c r="C105" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="41"/>
+      <c r="M105" s="40"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="39"/>
+      <c r="P105" s="42"/>
+      <c r="Q105" s="22"/>
+      <c r="R105" s="39"/>
+      <c r="S105" s="42"/>
+      <c r="T105" s="22"/>
+      <c r="U105" s="22"/>
+      <c r="V105" s="46"/>
+    </row>
+    <row r="106" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A106" s="17">
+        <v>6</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" s="19"/>
+      <c r="F106" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="39"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="41"/>
+      <c r="M106" s="40"/>
+      <c r="N106" s="22"/>
+      <c r="O106" s="39"/>
+      <c r="P106" s="42"/>
+      <c r="Q106" s="22"/>
+      <c r="R106" s="39"/>
+      <c r="S106" s="42"/>
+      <c r="T106" s="22"/>
+      <c r="U106" s="22"/>
+      <c r="V106" s="46"/>
+    </row>
+    <row r="107" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A107" s="23"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" s="19"/>
+      <c r="F107" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="41"/>
+      <c r="M107" s="40"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="39"/>
+      <c r="P107" s="42"/>
+      <c r="Q107" s="22"/>
+      <c r="R107" s="39"/>
+      <c r="S107" s="42"/>
+      <c r="T107" s="22"/>
+      <c r="U107" s="22"/>
+      <c r="V107" s="46"/>
+    </row>
+    <row r="108" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A108" s="26"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="39"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="41"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="39"/>
+      <c r="P108" s="42"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="39"/>
+      <c r="S108" s="42"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="22"/>
+      <c r="V108" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" ht="16.5" customHeight="1" spans="1:22">
+      <c r="A109" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="29"/>
+      <c r="Q109" s="29"/>
+      <c r="R109" s="29"/>
+      <c r="S109" s="29"/>
+      <c r="T109" s="29"/>
+      <c r="U109" s="29"/>
+      <c r="V109" s="48"/>
+    </row>
+    <row r="112" ht="40.5" customHeight="1" spans="1:22">
+      <c r="A112" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+    </row>
+    <row r="113" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A113" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B113" s="30"/>
+      <c r="C113" s="4" t="str">
+        <f>IF(C2="","",C2)</f>
+        <v/>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="31"/>
+      <c r="R113" s="31"/>
+      <c r="S113" s="31"/>
+      <c r="T113" s="31"/>
+      <c r="U113" s="31"/>
+      <c r="V113" s="31"/>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="A114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="8"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K114" s="8"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="N114" s="8"/>
+      <c r="O114" s="32"/>
+      <c r="P114" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="32"/>
+      <c r="S114" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="T114" s="8"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" ht="25.5" spans="1:22">
+      <c r="A115" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K115" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L115" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M115" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N115" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O115" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="P115" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q115" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R115" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="S115" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T115" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U115" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="V115" s="44"/>
+    </row>
+    <row r="116" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A116" s="17">
+        <v>1</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="40"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="41"/>
+      <c r="M116" s="40"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="39"/>
+      <c r="P116" s="42"/>
+      <c r="Q116" s="22"/>
+      <c r="R116" s="39"/>
+      <c r="S116" s="42"/>
+      <c r="T116" s="22"/>
+      <c r="U116" s="22"/>
+      <c r="V116" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22">
+      <c r="A117" s="23"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="41"/>
+      <c r="M117" s="40"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="39"/>
+      <c r="P117" s="42"/>
+      <c r="Q117" s="22"/>
+      <c r="R117" s="39"/>
+      <c r="S117" s="42"/>
+      <c r="T117" s="22"/>
+      <c r="U117" s="22"/>
+      <c r="V117" s="46"/>
+    </row>
+    <row r="118" spans="1:22">
+      <c r="A118" s="23"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="39"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="41"/>
+      <c r="M118" s="40"/>
+      <c r="N118" s="22"/>
+      <c r="O118" s="39"/>
+      <c r="P118" s="42"/>
+      <c r="Q118" s="22"/>
+      <c r="R118" s="39"/>
+      <c r="S118" s="42"/>
+      <c r="T118" s="22"/>
+      <c r="U118" s="22"/>
+      <c r="V118" s="46"/>
+    </row>
+    <row r="119" spans="1:22">
+      <c r="A119" s="23"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D119" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="39"/>
+      <c r="J119" s="40"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="41"/>
+      <c r="M119" s="40"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="39"/>
+      <c r="P119" s="42"/>
+      <c r="Q119" s="22"/>
+      <c r="R119" s="39"/>
+      <c r="S119" s="42"/>
+      <c r="T119" s="22"/>
+      <c r="U119" s="22"/>
+      <c r="V119" s="46"/>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="A120" s="23"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="39"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="22"/>
+      <c r="L120" s="41"/>
+      <c r="M120" s="40"/>
+      <c r="N120" s="22"/>
+      <c r="O120" s="39"/>
+      <c r="P120" s="42"/>
+      <c r="Q120" s="22"/>
+      <c r="R120" s="39"/>
+      <c r="S120" s="42"/>
+      <c r="T120" s="22"/>
+      <c r="U120" s="22"/>
+      <c r="V120" s="46"/>
+    </row>
+    <row r="121" spans="1:22">
+      <c r="A121" s="23"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="25">
+        <v>1</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="40"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="41"/>
+      <c r="M121" s="40"/>
+      <c r="N121" s="22"/>
+      <c r="O121" s="39"/>
+      <c r="P121" s="42"/>
+      <c r="Q121" s="22"/>
+      <c r="R121" s="39"/>
+      <c r="S121" s="42"/>
+      <c r="T121" s="22"/>
+      <c r="U121" s="22"/>
+      <c r="V121" s="46"/>
+    </row>
+    <row r="122" spans="1:22">
+      <c r="A122" s="23"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" s="25">
+        <v>1</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="39"/>
+      <c r="J122" s="40"/>
+      <c r="K122" s="22"/>
+      <c r="L122" s="41"/>
+      <c r="M122" s="40"/>
+      <c r="N122" s="22"/>
+      <c r="O122" s="39"/>
+      <c r="P122" s="42"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="39"/>
+      <c r="S122" s="42"/>
+      <c r="T122" s="22"/>
+      <c r="U122" s="22"/>
+      <c r="V122" s="46"/>
+    </row>
+    <row r="123" spans="1:22">
+      <c r="A123" s="23"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="39"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="41"/>
+      <c r="M123" s="40"/>
+      <c r="N123" s="22"/>
+      <c r="O123" s="39"/>
+      <c r="P123" s="42"/>
+      <c r="Q123" s="22"/>
+      <c r="R123" s="39"/>
+      <c r="S123" s="42"/>
+      <c r="T123" s="22"/>
+      <c r="U123" s="22"/>
+      <c r="V123" s="46"/>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="A124" s="23"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="39"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="41"/>
+      <c r="M124" s="40"/>
+      <c r="N124" s="22"/>
+      <c r="O124" s="39"/>
+      <c r="P124" s="42"/>
+      <c r="Q124" s="22"/>
+      <c r="R124" s="39"/>
+      <c r="S124" s="42"/>
+      <c r="T124" s="22"/>
+      <c r="U124" s="22"/>
+      <c r="V124" s="46"/>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="A125" s="23"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="40"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="41"/>
+      <c r="M125" s="40"/>
+      <c r="N125" s="22"/>
+      <c r="O125" s="39"/>
+      <c r="P125" s="42"/>
+      <c r="Q125" s="22"/>
+      <c r="R125" s="39"/>
+      <c r="S125" s="42"/>
+      <c r="T125" s="22"/>
+      <c r="U125" s="22"/>
+      <c r="V125" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="A126" s="23"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="39"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="41"/>
+      <c r="M126" s="40"/>
+      <c r="N126" s="22"/>
+      <c r="O126" s="39"/>
+      <c r="P126" s="42"/>
+      <c r="Q126" s="22"/>
+      <c r="R126" s="39"/>
+      <c r="S126" s="42"/>
+      <c r="T126" s="22"/>
+      <c r="U126" s="22"/>
+      <c r="V126" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22">
+      <c r="A127" s="26"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="39"/>
+      <c r="J127" s="40"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="41"/>
+      <c r="M127" s="40"/>
+      <c r="N127" s="22"/>
+      <c r="O127" s="39"/>
+      <c r="P127" s="42"/>
+      <c r="Q127" s="22"/>
+      <c r="R127" s="39"/>
+      <c r="S127" s="42"/>
+      <c r="T127" s="22"/>
+      <c r="U127" s="22"/>
+      <c r="V127" s="46"/>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="A128" s="17">
+        <v>2</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D128" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="39"/>
+      <c r="J128" s="40"/>
+      <c r="K128" s="22"/>
+      <c r="L128" s="41"/>
+      <c r="M128" s="40"/>
+      <c r="N128" s="22"/>
+      <c r="O128" s="39"/>
+      <c r="P128" s="42"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="39"/>
+      <c r="S128" s="42"/>
+      <c r="T128" s="22"/>
+      <c r="U128" s="22"/>
+      <c r="V128" s="46"/>
+    </row>
+    <row r="129" spans="1:22">
+      <c r="A129" s="23"/>
+      <c r="B129" s="24"/>
+      <c r="C129" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D129" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="39"/>
+      <c r="J129" s="40"/>
+      <c r="K129" s="22"/>
+      <c r="L129" s="41"/>
+      <c r="M129" s="40"/>
+      <c r="N129" s="22"/>
+      <c r="O129" s="39"/>
+      <c r="P129" s="42"/>
+      <c r="Q129" s="22"/>
+      <c r="R129" s="39"/>
+      <c r="S129" s="42"/>
+      <c r="T129" s="22"/>
+      <c r="U129" s="22"/>
+      <c r="V129" s="46"/>
+    </row>
+    <row r="130" spans="1:22">
+      <c r="A130" s="23"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D130" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F130" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="39"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="22"/>
+      <c r="L130" s="41"/>
+      <c r="M130" s="40"/>
+      <c r="N130" s="22"/>
+      <c r="O130" s="39"/>
+      <c r="P130" s="42"/>
+      <c r="Q130" s="22"/>
+      <c r="R130" s="39"/>
+      <c r="S130" s="42"/>
+      <c r="T130" s="22"/>
+      <c r="U130" s="22"/>
+      <c r="V130" s="46"/>
+    </row>
+    <row r="131" spans="1:22">
+      <c r="A131" s="23"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="40"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="41"/>
+      <c r="M131" s="40"/>
+      <c r="N131" s="22"/>
+      <c r="O131" s="39"/>
+      <c r="P131" s="42"/>
+      <c r="Q131" s="22"/>
+      <c r="R131" s="39"/>
+      <c r="S131" s="42"/>
+      <c r="T131" s="22"/>
+      <c r="U131" s="22"/>
+      <c r="V131" s="46"/>
+    </row>
+    <row r="132" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A132" s="17">
+        <v>3</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="22"/>
+      <c r="L132" s="41"/>
+      <c r="M132" s="40"/>
+      <c r="N132" s="22"/>
+      <c r="O132" s="39"/>
+      <c r="P132" s="42"/>
+      <c r="Q132" s="22"/>
+      <c r="R132" s="39"/>
+      <c r="S132" s="42"/>
+      <c r="T132" s="22"/>
+      <c r="U132" s="22"/>
+      <c r="V132" s="46"/>
+    </row>
+    <row r="133" spans="1:22">
+      <c r="A133" s="23"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="40"/>
+      <c r="K133" s="22"/>
+      <c r="L133" s="41"/>
+      <c r="M133" s="40"/>
+      <c r="N133" s="22"/>
+      <c r="O133" s="39"/>
+      <c r="P133" s="42"/>
+      <c r="Q133" s="22"/>
+      <c r="R133" s="39"/>
+      <c r="S133" s="42"/>
+      <c r="T133" s="22"/>
+      <c r="U133" s="22"/>
+      <c r="V133" s="46"/>
+    </row>
+    <row r="134" spans="1:22">
+      <c r="A134" s="23"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="39"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="22"/>
+      <c r="L134" s="41"/>
+      <c r="M134" s="40"/>
+      <c r="N134" s="22"/>
+      <c r="O134" s="39"/>
+      <c r="P134" s="42"/>
+      <c r="Q134" s="22"/>
+      <c r="R134" s="39"/>
+      <c r="S134" s="42"/>
+      <c r="T134" s="22"/>
+      <c r="U134" s="22"/>
+      <c r="V134" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22">
+      <c r="A135" s="17">
+        <v>4</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" s="25"/>
+      <c r="F135" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="39"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="22"/>
+      <c r="L135" s="41"/>
+      <c r="M135" s="40"/>
+      <c r="N135" s="22"/>
+      <c r="O135" s="39"/>
+      <c r="P135" s="42"/>
+      <c r="Q135" s="22"/>
+      <c r="R135" s="39"/>
+      <c r="S135" s="42"/>
+      <c r="T135" s="22"/>
+      <c r="U135" s="22"/>
+      <c r="V135" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22">
+      <c r="A136" s="23"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F136" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="39"/>
+      <c r="J136" s="40"/>
+      <c r="K136" s="22"/>
+      <c r="L136" s="41"/>
+      <c r="M136" s="40"/>
+      <c r="N136" s="22"/>
+      <c r="O136" s="39"/>
+      <c r="P136" s="42"/>
+      <c r="Q136" s="22"/>
+      <c r="R136" s="39"/>
+      <c r="S136" s="42"/>
+      <c r="T136" s="22"/>
+      <c r="U136" s="22"/>
+      <c r="V136" s="46"/>
+    </row>
+    <row r="137" spans="1:22">
+      <c r="A137" s="23"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F137" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G137" s="22"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="39"/>
+      <c r="J137" s="40"/>
+      <c r="K137" s="22"/>
+      <c r="L137" s="41"/>
+      <c r="M137" s="40"/>
+      <c r="N137" s="22"/>
+      <c r="O137" s="39"/>
+      <c r="P137" s="42"/>
+      <c r="Q137" s="22"/>
+      <c r="R137" s="39"/>
+      <c r="S137" s="42"/>
+      <c r="T137" s="22"/>
+      <c r="U137" s="22"/>
+      <c r="V137" s="46"/>
+    </row>
+    <row r="138" spans="1:22">
+      <c r="A138" s="23"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F138" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22"/>
+      <c r="I138" s="39"/>
+      <c r="J138" s="40"/>
+      <c r="K138" s="22"/>
+      <c r="L138" s="41"/>
+      <c r="M138" s="40"/>
+      <c r="N138" s="22"/>
+      <c r="O138" s="39"/>
+      <c r="P138" s="42"/>
+      <c r="Q138" s="22"/>
+      <c r="R138" s="39"/>
+      <c r="S138" s="42"/>
+      <c r="T138" s="22"/>
+      <c r="U138" s="22"/>
+      <c r="V138" s="46"/>
+    </row>
+    <row r="139" spans="1:22">
+      <c r="A139" s="17">
+        <v>5</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" s="25"/>
+      <c r="F139" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G139" s="22"/>
+      <c r="H139" s="22"/>
+      <c r="I139" s="39"/>
+      <c r="J139" s="40"/>
+      <c r="K139" s="22"/>
+      <c r="L139" s="41"/>
+      <c r="M139" s="40"/>
+      <c r="N139" s="22"/>
+      <c r="O139" s="39"/>
+      <c r="P139" s="42"/>
+      <c r="Q139" s="22"/>
+      <c r="R139" s="39"/>
+      <c r="S139" s="42"/>
+      <c r="T139" s="22"/>
+      <c r="U139" s="22"/>
+      <c r="V139" s="46"/>
+    </row>
+    <row r="140" spans="1:22">
+      <c r="A140" s="23"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F140" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G140" s="22"/>
+      <c r="H140" s="22"/>
+      <c r="I140" s="39"/>
+      <c r="J140" s="40"/>
+      <c r="K140" s="22"/>
+      <c r="L140" s="41"/>
+      <c r="M140" s="40"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="39"/>
+      <c r="P140" s="42"/>
+      <c r="Q140" s="22"/>
+      <c r="R140" s="39"/>
+      <c r="S140" s="42"/>
+      <c r="T140" s="22"/>
+      <c r="U140" s="22"/>
+      <c r="V140" s="46"/>
+    </row>
+    <row r="141" spans="1:22">
+      <c r="A141" s="23"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D141" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E141" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F141" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G141" s="22"/>
+      <c r="H141" s="22"/>
+      <c r="I141" s="39"/>
+      <c r="J141" s="40"/>
+      <c r="K141" s="22"/>
+      <c r="L141" s="41"/>
+      <c r="M141" s="40"/>
+      <c r="N141" s="22"/>
+      <c r="O141" s="39"/>
+      <c r="P141" s="42"/>
+      <c r="Q141" s="22"/>
+      <c r="R141" s="39"/>
+      <c r="S141" s="42"/>
+      <c r="T141" s="22"/>
+      <c r="U141" s="22"/>
+      <c r="V141" s="46"/>
+    </row>
+    <row r="142" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A142" s="26"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F142" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="39"/>
+      <c r="J142" s="40"/>
+      <c r="K142" s="22"/>
+      <c r="L142" s="41"/>
+      <c r="M142" s="40"/>
+      <c r="N142" s="22"/>
+      <c r="O142" s="39"/>
+      <c r="P142" s="42"/>
+      <c r="Q142" s="22"/>
+      <c r="R142" s="39"/>
+      <c r="S142" s="42"/>
+      <c r="T142" s="22"/>
+      <c r="U142" s="22"/>
+      <c r="V142" s="46"/>
+    </row>
+    <row r="143" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A143" s="17">
+        <v>6</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" s="19"/>
+      <c r="F143" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="39"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="22"/>
+      <c r="L143" s="41"/>
+      <c r="M143" s="40"/>
+      <c r="N143" s="22"/>
+      <c r="O143" s="39"/>
+      <c r="P143" s="42"/>
+      <c r="Q143" s="22"/>
+      <c r="R143" s="39"/>
+      <c r="S143" s="42"/>
+      <c r="T143" s="22"/>
+      <c r="U143" s="22"/>
+      <c r="V143" s="46"/>
+    </row>
+    <row r="144" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A144" s="23"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E144" s="19"/>
+      <c r="F144" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="39"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="22"/>
+      <c r="L144" s="41"/>
+      <c r="M144" s="40"/>
+      <c r="N144" s="22"/>
+      <c r="O144" s="39"/>
+      <c r="P144" s="42"/>
+      <c r="Q144" s="22"/>
+      <c r="R144" s="39"/>
+      <c r="S144" s="42"/>
+      <c r="T144" s="22"/>
+      <c r="U144" s="22"/>
+      <c r="V144" s="46"/>
+    </row>
+    <row r="145" ht="14.25" customHeight="1" spans="1:22">
+      <c r="A145" s="26"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F145" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="39"/>
+      <c r="J145" s="40"/>
+      <c r="K145" s="22"/>
+      <c r="L145" s="41"/>
+      <c r="M145" s="40"/>
+      <c r="N145" s="22"/>
+      <c r="O145" s="39"/>
+      <c r="P145" s="42"/>
+      <c r="Q145" s="22"/>
+      <c r="R145" s="39"/>
+      <c r="S145" s="42"/>
+      <c r="T145" s="22"/>
+      <c r="U145" s="22"/>
+      <c r="V145" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" ht="16.5" customHeight="1" spans="1:22">
+      <c r="A146" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="29"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="29"/>
+      <c r="M146" s="29"/>
+      <c r="N146" s="29"/>
+      <c r="O146" s="29"/>
+      <c r="P146" s="29"/>
+      <c r="Q146" s="29"/>
+      <c r="R146" s="29"/>
+      <c r="S146" s="29"/>
+      <c r="T146" s="29"/>
+      <c r="U146" s="29"/>
+      <c r="V146" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="112">
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -3236,12 +6880,60 @@
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="A35:V35"/>
+    <mergeCell ref="A38:V38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="O39:V39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="A72:V72"/>
+    <mergeCell ref="A75:V75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="G76:U76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="A109:V109"/>
+    <mergeCell ref="A112:V112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="P113:V113"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="M114:O114"/>
+    <mergeCell ref="P114:R114"/>
+    <mergeCell ref="S114:U114"/>
+    <mergeCell ref="A146:V146"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A42:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A79:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A116:A127"/>
+    <mergeCell ref="A128:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A145"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="B17:B20"/>
@@ -3249,15 +6941,51 @@
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B127"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B145"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C114:C115"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D114:D115"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E114:E115"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F114:F115"/>
     <mergeCell ref="V3:V4"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="V114:V115"/>
   </mergeCells>
-  <pageMargins left="0.313888888888889" right="0.196527777777778" top="0" bottom="0" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.313888888888889" right="0.196527777777778" top="0" bottom="0" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -3267,12 +6995,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="K19" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>